--- a/Assets/_TableResources/Table_Stage.xlsx
+++ b/Assets/_TableResources/Table_Stage.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198C867C-C75F-4A4C-A143-430800CA4284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644B6ED-EFED-497C-81E5-9824AC7FA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4490" yWindow="1810" windowWidth="14300" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="1720" windowWidth="17330" windowHeight="10170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfos" sheetId="1" r:id="rId1"/>
     <sheet name="StageCounts" sheetId="2" r:id="rId2"/>
+    <sheet name="Stage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Stage</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +50,10 @@
   </si>
   <si>
     <t>StageCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -413,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -430,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>700</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -447,9 +452,94 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
     </row>
@@ -463,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84E863B-98DC-4BDA-B514-DE225BDF20AF}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -483,4 +573,36 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E1EBEA-CB9D-4F5B-A978-84AA9EDD2B26}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/_TableResources/Table_Stage.xlsx
+++ b/Assets/_TableResources/Table_Stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644B6ED-EFED-497C-81E5-9824AC7FA96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2638008-9713-4583-B4EB-EF95EE534879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="1720" windowWidth="17330" windowHeight="10170" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4330" yWindow="2220" windowWidth="20070" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StageInfos" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -421,126 +421,211 @@
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
       <c r="D3">
         <v>700</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -577,10 +662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E1EBEA-CB9D-4F5B-A978-84AA9EDD2B26}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -598,7 +683,63 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
